--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +543,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.174733</v>
+        <v>0.2310223333333334</v>
       </c>
       <c r="N2">
-        <v>0.524199</v>
+        <v>0.6930670000000001</v>
       </c>
       <c r="O2">
-        <v>0.05882867859784574</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="P2">
-        <v>0.05882867859784573</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="Q2">
-        <v>1.313082674735</v>
+        <v>1.736085475421667</v>
       </c>
       <c r="R2">
-        <v>11.817744072615</v>
+        <v>15.624769278795</v>
       </c>
       <c r="S2">
-        <v>0.05836672360434424</v>
+        <v>0.1340543271276189</v>
       </c>
       <c r="T2">
-        <v>0.05836672360434423</v>
+        <v>0.1340543271276189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +605,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +623,10 @@
         <v>1.448557</v>
       </c>
       <c r="O3">
-        <v>0.1625655412995058</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="P3">
-        <v>0.1625655412995058</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="Q3">
         <v>3.628536300271667</v>
@@ -638,10 +635,10 @@
         <v>32.656826702445</v>
       </c>
       <c r="S3">
-        <v>0.1612889876633456</v>
+        <v>0.2801826287227673</v>
       </c>
       <c r="T3">
-        <v>0.1612889876633456</v>
+        <v>0.2801826287227673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +667,10 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.28034</v>
+        <v>0.9450603333333335</v>
       </c>
       <c r="N4">
-        <v>6.841019999999999</v>
+        <v>2.835181</v>
       </c>
       <c r="O4">
-        <v>0.7677392876778373</v>
+        <v>0.5609114952015948</v>
       </c>
       <c r="P4">
-        <v>0.7677392876778373</v>
+        <v>0.5609114952015947</v>
       </c>
       <c r="Q4">
-        <v>17.1362876303</v>
+        <v>7.101934667631667</v>
       </c>
       <c r="R4">
-        <v>154.2265886727</v>
+        <v>63.91741200868501</v>
       </c>
       <c r="S4">
-        <v>0.7617105784478623</v>
+        <v>0.5483860597027554</v>
       </c>
       <c r="T4">
-        <v>0.7617105784478623</v>
+        <v>0.5483860597027553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,45 +729,45 @@
         <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02610233333333334</v>
+        <v>0.02593033333333333</v>
       </c>
       <c r="N5">
-        <v>0.078307</v>
+        <v>0.077791</v>
       </c>
       <c r="O5">
-        <v>0.008788069673848112</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="P5">
-        <v>0.008788069673848112</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="Q5">
-        <v>0.1961536840216667</v>
+        <v>0.1948611392816667</v>
       </c>
       <c r="R5">
-        <v>1.765383156195</v>
+        <v>1.753750253535</v>
       </c>
       <c r="S5">
-        <v>0.008719060939233735</v>
+        <v>0.01504648203071939</v>
       </c>
       <c r="T5">
-        <v>0.008719060939233735</v>
+        <v>0.01504648203071939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.171642</v>
+      </c>
+      <c r="H6">
+        <v>0.514926</v>
+      </c>
+      <c r="I6">
+        <v>0.02233050241613897</v>
+      </c>
+      <c r="J6">
+        <v>0.02233050241613898</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>7.514794999999999</v>
-      </c>
-      <c r="H6">
-        <v>22.544385</v>
-      </c>
-      <c r="I6">
-        <v>0.992147452492356</v>
-      </c>
-      <c r="J6">
-        <v>0.992147452492356</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.006173333333333333</v>
+        <v>0.2310223333333334</v>
       </c>
       <c r="N6">
-        <v>0.01852</v>
+        <v>0.6930670000000001</v>
       </c>
       <c r="O6">
-        <v>0.002078422750963094</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="P6">
-        <v>0.002078422750963094</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="Q6">
-        <v>0.04639133446666666</v>
+        <v>0.039653135338</v>
       </c>
       <c r="R6">
-        <v>0.4175220101999999</v>
+        <v>0.356878218042</v>
       </c>
       <c r="S6">
-        <v>0.002062101837570188</v>
+        <v>0.003061873652819372</v>
       </c>
       <c r="T6">
-        <v>0.002062101837570188</v>
+        <v>0.003061873652819373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H7">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I7">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J7">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.174733</v>
+        <v>0.4828523333333334</v>
       </c>
       <c r="N7">
-        <v>0.524199</v>
+        <v>1.448557</v>
       </c>
       <c r="O7">
-        <v>0.05882867859784574</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="P7">
-        <v>0.05882867859784573</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="Q7">
-        <v>0.01039265288533333</v>
+        <v>0.082877740198</v>
       </c>
       <c r="R7">
-        <v>0.093533875968</v>
+        <v>0.7458996617820001</v>
       </c>
       <c r="S7">
-        <v>0.0004619549935015016</v>
+        <v>0.006399523441322515</v>
       </c>
       <c r="T7">
-        <v>0.0004619549935015017</v>
+        <v>0.006399523441322516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +900,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H8">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I8">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J8">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4828523333333334</v>
+        <v>0.9450603333333335</v>
       </c>
       <c r="N8">
-        <v>1.448557</v>
+        <v>2.835181</v>
       </c>
       <c r="O8">
-        <v>0.1625655412995058</v>
+        <v>0.5609114952015948</v>
       </c>
       <c r="P8">
-        <v>0.1625655412995058</v>
+        <v>0.5609114952015947</v>
       </c>
       <c r="Q8">
-        <v>0.02871876918044445</v>
+        <v>0.162212045734</v>
       </c>
       <c r="R8">
-        <v>0.258468922624</v>
+        <v>1.459908411606</v>
       </c>
       <c r="S8">
-        <v>0.001276553636160227</v>
+        <v>0.01252543549883934</v>
       </c>
       <c r="T8">
-        <v>0.001276553636160227</v>
+        <v>0.01252543549883934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,179 +962,55 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.171642</v>
+      </c>
+      <c r="H9">
+        <v>0.514926</v>
+      </c>
+      <c r="I9">
+        <v>0.02233050241613897</v>
+      </c>
+      <c r="J9">
+        <v>0.02233050241613898</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.05947733333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.178432</v>
-      </c>
-      <c r="I9">
-        <v>0.007852547507643968</v>
-      </c>
-      <c r="J9">
-        <v>0.00785254750764397</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>2.28034</v>
+        <v>0.02593033333333333</v>
       </c>
       <c r="N9">
-        <v>6.841019999999999</v>
+        <v>0.077791</v>
       </c>
       <c r="O9">
-        <v>0.7677392876778373</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="P9">
-        <v>0.7677392876778373</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="Q9">
-        <v>0.1356285422933333</v>
+        <v>0.004450734273999999</v>
       </c>
       <c r="R9">
-        <v>1.22065688064</v>
+        <v>0.040056608466</v>
       </c>
       <c r="S9">
-        <v>0.006028709229974957</v>
+        <v>0.0003436698231577492</v>
       </c>
       <c r="T9">
-        <v>0.006028709229974958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.05947733333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.178432</v>
-      </c>
-      <c r="I10">
-        <v>0.007852547507643968</v>
-      </c>
-      <c r="J10">
-        <v>0.00785254750764397</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.02610233333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.078307</v>
-      </c>
-      <c r="O10">
-        <v>0.008788069673848112</v>
-      </c>
-      <c r="P10">
-        <v>0.008788069673848112</v>
-      </c>
-      <c r="Q10">
-        <v>0.001552497180444444</v>
-      </c>
-      <c r="R10">
-        <v>0.013972474624</v>
-      </c>
-      <c r="S10">
-        <v>6.900873461437754E-05</v>
-      </c>
-      <c r="T10">
-        <v>6.900873461437755E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.05947733333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.178432</v>
-      </c>
-      <c r="I11">
-        <v>0.007852547507643968</v>
-      </c>
-      <c r="J11">
-        <v>0.00785254750764397</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.006173333333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.01852</v>
-      </c>
-      <c r="O11">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="P11">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="Q11">
-        <v>0.0003671734044444444</v>
-      </c>
-      <c r="R11">
-        <v>0.00330456064</v>
-      </c>
-      <c r="S11">
-        <v>1.632091339290576E-05</v>
-      </c>
-      <c r="T11">
-        <v>1.632091339290577E-05</v>
+        <v>0.0003436698231577493</v>
       </c>
     </row>
   </sheetData>
